--- a/curation/draft/package14/R14_cdisc_biomedical_concepts_single_20250923_new.xlsx
+++ b/curation/draft/package14/R14_cdisc_biomedical_concepts_single_20250923_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA99B78F-433E-466B-B234-407945688FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AED8028-EDE0-4774-A670-09DEA3AE4364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14660,9 +14660,6 @@
     <t>Laboratory Tests;Chemistry Tests;Urine Protein Measurement;Ratio Measurements</t>
   </si>
   <si>
-    <t>Musculoskeletal Finding;Mass Measurements</t>
-  </si>
-  <si>
     <t>Laboratory Tests;Chemistry Tests;Protein or Enzyme Type Measurements</t>
   </si>
   <si>
@@ -14673,6 +14670,9 @@
   </si>
   <si>
     <t>Vital Signs;Body Measurements</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Findings;Mass Measurements</t>
   </si>
 </sst>
 </file>
@@ -14945,8 +14945,8 @@
   <dimension ref="A1:O1105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I376" sqref="I376"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I950" sqref="I950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>4878</v>
+        <v>4882</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>521</v>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>770</v>
@@ -21036,7 +21036,7 @@
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>775</v>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>780</v>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>791</v>
@@ -29860,7 +29860,7 @@
       </c>
       <c r="H400" s="4"/>
       <c r="I400" s="4" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="J400" s="4" t="s">
         <v>1785</v>
@@ -36759,7 +36759,7 @@
         <v>549</v>
       </c>
       <c r="I591" s="4" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="J591" s="4" t="s">
         <v>2597</v>
@@ -46485,7 +46485,7 @@
       </c>
       <c r="H859" s="4"/>
       <c r="I859" s="4" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="J859" s="4" t="s">
         <v>3696</v>
@@ -49866,7 +49866,7 @@
       </c>
       <c r="H950" s="4"/>
       <c r="I950" s="4" t="s">
-        <v>4878</v>
+        <v>4882</v>
       </c>
       <c r="J950" s="4" t="s">
         <v>4066</v>
@@ -54599,7 +54599,7 @@
       </c>
       <c r="H1083" s="4"/>
       <c r="I1083" s="4" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="J1083" s="4"/>
       <c r="K1083" s="4"/>
@@ -55025,7 +55025,7 @@
       </c>
       <c r="H1095" s="4"/>
       <c r="I1095" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="J1095" s="4" t="s">
         <v>4625</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H1096" s="4"/>
       <c r="I1096" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="J1096" s="4"/>
       <c r="K1096" s="4" t="s">
